--- a/results/RQS/compilation_pass_rate_over_itteration.xlsx
+++ b/results/RQS/compilation_pass_rate_over_itteration.xlsx
@@ -36,28 +36,28 @@
     <t>Iteration</t>
   </si>
   <si>
-    <t>Value1</t>
+    <t>Open meetings</t>
   </si>
   <si>
-    <t>Value2</t>
+    <t>Jmeter</t>
   </si>
   <si>
-    <t>Value3</t>
+    <t>Deltaspike</t>
   </si>
   <si>
-    <t>Value4</t>
+    <t>skywalking</t>
   </si>
   <si>
-    <t>Value5</t>
+    <t>apex-core</t>
   </si>
   <si>
-    <t>Value6</t>
+    <t>System</t>
   </si>
   <si>
-    <t>Value7</t>
+    <t>Accumolo</t>
   </si>
   <si>
-    <t>Value8</t>
+    <t>Jclouds</t>
   </si>
   <si>
     <t>RefAgent-Starcoder</t>
